--- a/data/trans_orig/P36BPD10_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD10_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>8880</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3957</v>
+        <v>4119</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17364</v>
+        <v>17124</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02784900679632794</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0124098954687156</v>
+        <v>0.01291933223273258</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0544586632426606</v>
+        <v>0.05370546697977404</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -762,19 +762,19 @@
         <v>16327</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9825</v>
+        <v>9092</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29261</v>
+        <v>29215</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05165645937666306</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03108457153304908</v>
+        <v>0.02876789077692203</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09258104200140883</v>
+        <v>0.09243464517859136</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -783,19 +783,19 @@
         <v>25206</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16279</v>
+        <v>16519</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38786</v>
+        <v>38940</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03970052445411067</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02564009822485103</v>
+        <v>0.02601729032276609</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06108916237451396</v>
+        <v>0.0613325590223669</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>128436</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>111034</v>
+        <v>110735</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>146703</v>
+        <v>148505</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.402816284093019</v>
+        <v>0.4028162840930191</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3482385775743123</v>
+        <v>0.3472996819198015</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4601081020866104</v>
+        <v>0.465758146644575</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>206</v>
@@ -833,19 +833,19 @@
         <v>121255</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>106813</v>
+        <v>107408</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>136994</v>
+        <v>136363</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3836444840797842</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3379505689911104</v>
+        <v>0.3398325846830192</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4334408543540242</v>
+        <v>0.4314453913024321</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>336</v>
@@ -854,19 +854,19 @@
         <v>249691</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>224707</v>
+        <v>226467</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>272490</v>
+        <v>272425</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3932724269490586</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3539212433564943</v>
+        <v>0.3566932601881034</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4291818712988545</v>
+        <v>0.4290785447795478</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>181530</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>163525</v>
+        <v>162219</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>200551</v>
+        <v>199689</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.569334709110653</v>
+        <v>0.5693347091106531</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5128679996982112</v>
+        <v>0.508769911178321</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6289926734712982</v>
+        <v>0.6262890021941409</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>312</v>
@@ -904,19 +904,19 @@
         <v>178479</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>162716</v>
+        <v>162192</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>193068</v>
+        <v>192623</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5646990565435528</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5148247980057156</v>
+        <v>0.5131676133760099</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6108567960611528</v>
+        <v>0.6094493747554469</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>504</v>
@@ -925,19 +925,19 @@
         <v>360009</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>336623</v>
+        <v>334674</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>384906</v>
+        <v>382838</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5670270485968308</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5301935048610753</v>
+        <v>0.5271238389596645</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6062409158908816</v>
+        <v>0.6029832117925398</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>105820</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>82733</v>
+        <v>84468</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>128885</v>
+        <v>129639</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1994168278986009</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1559088132562195</v>
+        <v>0.1591799438221376</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2428831709876427</v>
+        <v>0.2443040285728662</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>133</v>
@@ -1050,19 +1050,19 @@
         <v>102508</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>86677</v>
+        <v>87504</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>120272</v>
+        <v>119383</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1875733033269678</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1586064334744167</v>
+        <v>0.1601189180499213</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.22007962599139</v>
+        <v>0.2184517386875555</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>207</v>
@@ -1071,19 +1071,19 @@
         <v>208328</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>181457</v>
+        <v>179261</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>242465</v>
+        <v>236302</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1934079422463495</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1684617675668153</v>
+        <v>0.1664232614031563</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2251007059610442</v>
+        <v>0.2193787303318358</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>270106</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>240518</v>
+        <v>240799</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>300129</v>
+        <v>297543</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5090133447211803</v>
+        <v>0.5090133447211802</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4532542503715864</v>
+        <v>0.453784342765677</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5655901334402526</v>
+        <v>0.560717507733193</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>376</v>
@@ -1121,19 +1121,19 @@
         <v>288902</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>267205</v>
+        <v>267049</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>309290</v>
+        <v>309794</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5286471167075373</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4889441924027397</v>
+        <v>0.4886588341647908</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5659525749262249</v>
+        <v>0.5668749802392606</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>571</v>
@@ -1142,19 +1142,19 @@
         <v>559009</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>519937</v>
+        <v>518342</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>594366</v>
+        <v>591777</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5189746607192042</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4827010017737344</v>
+        <v>0.4812198988728942</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5517994333749082</v>
+        <v>0.5493955828487087</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>154721</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>129022</v>
+        <v>131172</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>182796</v>
+        <v>184267</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2915698273802187</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2431411227743511</v>
+        <v>0.2471920085761181</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3444784942512681</v>
+        <v>0.3472503178310055</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>208</v>
@@ -1192,19 +1192,19 @@
         <v>155084</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>136598</v>
+        <v>135751</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>174126</v>
+        <v>174990</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2837795799654949</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2499525688867434</v>
+        <v>0.2484028035554749</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3186231398010171</v>
+        <v>0.3202044777397769</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>321</v>
@@ -1213,19 +1213,19 @@
         <v>309804</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>277326</v>
+        <v>279069</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>344151</v>
+        <v>341725</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2876173970344464</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2574647364199061</v>
+        <v>0.2590831083257535</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3195040201051919</v>
+        <v>0.3172514692709407</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>25681</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16525</v>
+        <v>17213</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>37193</v>
+        <v>37304</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08188176157717948</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05268869668570716</v>
+        <v>0.05488081124228851</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.118585835156202</v>
+        <v>0.1189404390645037</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>47</v>
@@ -1338,19 +1338,19 @@
         <v>36082</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>26246</v>
+        <v>26676</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>46644</v>
+        <v>47365</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1012451004271849</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07364693735904068</v>
+        <v>0.07485181357310648</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1308824068545517</v>
+        <v>0.1329059846316943</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>74</v>
@@ -1359,19 +1359,19 @@
         <v>61763</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>49440</v>
+        <v>48301</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>77679</v>
+        <v>76444</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09218111700961036</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07378989430764245</v>
+        <v>0.07208936364849801</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1159363267029769</v>
+        <v>0.1140924642944292</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>136997</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>119703</v>
+        <v>120939</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>155104</v>
+        <v>153211</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4368043226530254</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3816638949004674</v>
+        <v>0.3856050293131506</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4945359966949948</v>
+        <v>0.4885017031939985</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>189</v>
@@ -1409,19 +1409,19 @@
         <v>121498</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>106244</v>
+        <v>107415</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>136483</v>
+        <v>136198</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3409218181814261</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2981194830141505</v>
+        <v>0.3014048864116337</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3829695934066081</v>
+        <v>0.3821701594092753</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>341</v>
@@ -1430,19 +1430,19 @@
         <v>258495</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>236339</v>
+        <v>236434</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>282140</v>
+        <v>281510</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3858044408168219</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3527366075892879</v>
+        <v>0.3528780888051276</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4210940969647642</v>
+        <v>0.4201542902457447</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>150957</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>133561</v>
+        <v>135311</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>168193</v>
+        <v>167351</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4813139157697949</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.425849761404442</v>
+        <v>0.4314275437716564</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5362688029636776</v>
+        <v>0.5335860849689448</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>300</v>
@@ -1480,19 +1480,19 @@
         <v>198801</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>182870</v>
+        <v>182676</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>215251</v>
+        <v>214416</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.557833081391389</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5131302011807198</v>
+        <v>0.5125871691745888</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6039921503189432</v>
+        <v>0.601647260682929</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>479</v>
@@ -1501,19 +1501,19 @@
         <v>349758</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>324097</v>
+        <v>328118</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>372029</v>
+        <v>372357</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5220144421735678</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4837157263364045</v>
+        <v>0.4897171782856995</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5552546413388652</v>
+        <v>0.5557430718731535</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>23521</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13504</v>
+        <v>14689</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>36115</v>
+        <v>37350</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0633011540454589</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03634473558141376</v>
+        <v>0.0395317804396795</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0971976324910606</v>
+        <v>0.1005218027637526</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>38</v>
@@ -1626,19 +1626,19 @@
         <v>25383</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17408</v>
+        <v>17521</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36031</v>
+        <v>35477</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.06032337777645552</v>
+        <v>0.06032337777645551</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04137002934903562</v>
+        <v>0.04163946473367543</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08562676209752024</v>
+        <v>0.08431125902842007</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>59</v>
@@ -1647,19 +1647,19 @@
         <v>48904</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>36322</v>
+        <v>36419</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>65809</v>
+        <v>64027</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06171977467777515</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04584114581924199</v>
+        <v>0.04596280840753623</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08305445702632727</v>
+        <v>0.08080646924541224</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>109829</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>89224</v>
+        <v>90532</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>135523</v>
+        <v>133594</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2955836579555773</v>
+        <v>0.2955836579555774</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2401307627307303</v>
+        <v>0.2436505336334756</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3647352945763739</v>
+        <v>0.3595443435245605</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>163</v>
@@ -1697,19 +1697,19 @@
         <v>113869</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>96150</v>
+        <v>96719</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>130461</v>
+        <v>132267</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2706085681786073</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2284990882478395</v>
+        <v>0.2298525030030151</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3100397627912512</v>
+        <v>0.3143305988596514</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>259</v>
@@ -1718,19 +1718,19 @@
         <v>223698</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>196380</v>
+        <v>193981</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>255829</v>
+        <v>254393</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2823203741788656</v>
+        <v>0.2823203741788657</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2478434891866513</v>
+        <v>0.2448154492508303</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3228717429253594</v>
+        <v>0.3210596882245833</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>238217</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>213163</v>
+        <v>212695</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>260688</v>
+        <v>258713</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.6411151879989638</v>
+        <v>0.6411151879989637</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5736873048423783</v>
+        <v>0.5724290075003976</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7015919167843616</v>
+        <v>0.6962787100896765</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>396</v>
@@ -1768,19 +1768,19 @@
         <v>281536</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>264985</v>
+        <v>262046</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>300104</v>
+        <v>299349</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6690680540449373</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6297359252326263</v>
+        <v>0.6227506058852988</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7131948732151987</v>
+        <v>0.7114021305020078</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>569</v>
@@ -1789,19 +1789,19 @@
         <v>519752</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>488278</v>
+        <v>492836</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>548069</v>
+        <v>552415</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6559598511433592</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6162377252395497</v>
+        <v>0.6219894931096437</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6916971051807369</v>
+        <v>0.6971823026512091</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>5733</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2728</v>
+        <v>2250</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10991</v>
+        <v>10354</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02787353564335899</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01326458261042974</v>
+        <v>0.01093894309314947</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05344115255964822</v>
+        <v>0.05034437989680342</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -1914,19 +1914,19 @@
         <v>2387</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>940</v>
+        <v>1072</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5007</v>
+        <v>4932</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.01052326788772835</v>
+        <v>0.01052326788772834</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.004143525481968923</v>
+        <v>0.004725447771158662</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02207631506949789</v>
+        <v>0.02174574605076604</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>14</v>
@@ -1935,19 +1935,19 @@
         <v>8120</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4483</v>
+        <v>4525</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>13841</v>
+        <v>13917</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01877398837494194</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01036576757928329</v>
+        <v>0.01046353452791939</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03200399108103182</v>
+        <v>0.03217889464093864</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>63635</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>52307</v>
+        <v>52016</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>77987</v>
+        <v>77582</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3094105760267934</v>
+        <v>0.3094105760267933</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2543330573731709</v>
+        <v>0.252915865030735</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3791923708797275</v>
+        <v>0.3772258786412525</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>115</v>
@@ -1985,19 +1985,19 @@
         <v>55325</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>46675</v>
+        <v>46453</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>65121</v>
+        <v>66133</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.2439114260584199</v>
+        <v>0.2439114260584198</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2057772320622746</v>
+        <v>0.2047985336178419</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2870987924422725</v>
+        <v>0.2915608408469937</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>193</v>
@@ -2006,19 +2006,19 @@
         <v>118960</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>104405</v>
+        <v>103871</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>137179</v>
+        <v>135343</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2750587942806627</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2414062427842191</v>
+        <v>0.2401715051124047</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3171848853609939</v>
+        <v>0.3129396804818602</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>136297</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>122261</v>
+        <v>123098</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>147614</v>
+        <v>148480</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.6627158883298475</v>
+        <v>0.6627158883298477</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5944659333492135</v>
+        <v>0.598536367282669</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7177418159715288</v>
+        <v>0.7219511720461664</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>370</v>
@@ -2056,19 +2056,19 @@
         <v>169111</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>159580</v>
+        <v>158577</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>177937</v>
+        <v>178239</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.7455653060538517</v>
+        <v>0.7455653060538516</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7035449075173907</v>
+        <v>0.6991237980350972</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7844753200201183</v>
+        <v>0.7858046126550747</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>563</v>
@@ -2077,19 +2077,19 @@
         <v>305409</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>286653</v>
+        <v>287755</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>320517</v>
+        <v>320561</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7061672173443954</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6628003401430603</v>
+        <v>0.6653477682156528</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7410994828229192</v>
+        <v>0.7412019748202078</v>
       </c>
     </row>
     <row r="23">
@@ -2181,19 +2181,19 @@
         <v>34724</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>26387</v>
+        <v>25498</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>46433</v>
+        <v>46664</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.128271595147462</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0974739342239517</v>
+        <v>0.09419176208904705</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1715256779947389</v>
+        <v>0.1723798912798443</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>27</v>
@@ -2202,19 +2202,19 @@
         <v>17997</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>11532</v>
+        <v>12124</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>25254</v>
+        <v>26543</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.06823667694287154</v>
+        <v>0.06823667694287151</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04372313521001615</v>
+        <v>0.04596757414630962</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09574865479347293</v>
+        <v>0.1006369140579792</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>68</v>
@@ -2223,19 +2223,19 @@
         <v>52721</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>41030</v>
+        <v>40799</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>66481</v>
+        <v>66878</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09864485404915169</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07677032921481754</v>
+        <v>0.07633682153793966</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.124390192590081</v>
+        <v>0.1251326424050641</v>
       </c>
     </row>
     <row r="25">
@@ -2252,19 +2252,19 @@
         <v>117051</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>103209</v>
+        <v>102669</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>132742</v>
+        <v>131362</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.4323910032179488</v>
+        <v>0.4323910032179487</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.381256786657987</v>
+        <v>0.379260804139859</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4903535707229982</v>
+        <v>0.4852559050905911</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>205</v>
@@ -2273,19 +2273,19 @@
         <v>117865</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>105599</v>
+        <v>102864</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>131295</v>
+        <v>130478</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.4468805176140948</v>
+        <v>0.4468805176140946</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4003736220365927</v>
+        <v>0.3900073522354588</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4978023900971492</v>
+        <v>0.4947044127944452</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>362</v>
@@ -2294,19 +2294,19 @@
         <v>234916</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>213714</v>
+        <v>211955</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>254246</v>
+        <v>252765</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4395414600602807</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3998718121203297</v>
+        <v>0.3965806834027132</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4757085825753138</v>
+        <v>0.4729378052758198</v>
       </c>
     </row>
     <row r="26">
@@ -2323,19 +2323,19 @@
         <v>118932</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>103124</v>
+        <v>105554</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>132900</v>
+        <v>133149</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4393374016345893</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3809444045489507</v>
+        <v>0.3899209507592285</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4909357043662054</v>
+        <v>0.4918576888050945</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>228</v>
@@ -2344,19 +2344,19 @@
         <v>127888</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>114260</v>
+        <v>115992</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>139750</v>
+        <v>142026</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.4848828054430339</v>
+        <v>0.4848828054430336</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4332143393926963</v>
+        <v>0.4397811500303657</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5298563516185898</v>
+        <v>0.5384877776294998</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>401</v>
@@ -2365,19 +2365,19 @@
         <v>246820</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>226901</v>
+        <v>229219</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>265478</v>
+        <v>268285</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4618136858905676</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4245457177233414</v>
+        <v>0.4288815890428389</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4967242346187956</v>
+        <v>0.501977109789376</v>
       </c>
     </row>
     <row r="27">
@@ -2469,19 +2469,19 @@
         <v>99034</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>76901</v>
+        <v>75996</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>121918</v>
+        <v>124058</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1378147833285372</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1070148439710982</v>
+        <v>0.105754291883418</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1696586957744233</v>
+        <v>0.1726378122866639</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>90</v>
@@ -2490,19 +2490,19 @@
         <v>78412</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>63014</v>
+        <v>63241</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>99233</v>
+        <v>96693</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1016533642021586</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08169176005226535</v>
+        <v>0.08198624005942433</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1286454127042927</v>
+        <v>0.1253530728528816</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>163</v>
@@ -2511,19 +2511,19 @@
         <v>177446</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>149481</v>
+        <v>152626</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>208493</v>
+        <v>209105</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1190938243365563</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1003250166772939</v>
+        <v>0.102435357764575</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1399307482044538</v>
+        <v>0.1403413591630296</v>
       </c>
     </row>
     <row r="29">
@@ -2540,19 +2540,19 @@
         <v>256629</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>225134</v>
+        <v>226519</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>288250</v>
+        <v>287987</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3571214319921098</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3132928741998847</v>
+        <v>0.3152210370896072</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4011245587239021</v>
+        <v>0.4007577676388204</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>326</v>
@@ -2561,19 +2561,19 @@
         <v>264705</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>239585</v>
+        <v>239687</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>289105</v>
+        <v>290751</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.3431637613552022</v>
+        <v>0.3431637613552021</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3105985806405047</v>
+        <v>0.3107308660499178</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.374796050396408</v>
+        <v>0.3769306005929705</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>531</v>
@@ -2582,19 +2582,19 @@
         <v>521334</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>484874</v>
+        <v>483508</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>560800</v>
+        <v>560694</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3498954716750128</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3254247938403836</v>
+        <v>0.3245080342489254</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3763829292868272</v>
+        <v>0.3763122169832224</v>
       </c>
     </row>
     <row r="30">
@@ -2611,19 +2611,19 @@
         <v>362941</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>330114</v>
+        <v>330168</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>395455</v>
+        <v>393123</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.505063784679353</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.459381364568784</v>
+        <v>0.459456329582647</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5503094746576402</v>
+        <v>0.5470645986910532</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>543</v>
@@ -2632,19 +2632,19 @@
         <v>428249</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>401705</v>
+        <v>402109</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>455657</v>
+        <v>454585</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.5551828744426393</v>
+        <v>0.5551828744426391</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5207715715851101</v>
+        <v>0.5212950874402791</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5907145008156229</v>
+        <v>0.5893248636933187</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>863</v>
@@ -2653,19 +2653,19 @@
         <v>791191</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>747325</v>
+        <v>750812</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>831171</v>
+        <v>828862</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5310107039884309</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5015703555084651</v>
+        <v>0.5039102583021752</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5578439561606338</v>
+        <v>0.5562937389796609</v>
       </c>
     </row>
     <row r="31">
@@ -2757,19 +2757,19 @@
         <v>51246</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>37844</v>
+        <v>37116</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>67129</v>
+        <v>68018</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.06426823411266161</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04746119234468337</v>
+        <v>0.04654815295688091</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08418767384125909</v>
+        <v>0.08530213135193448</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>74</v>
@@ -2778,19 +2778,19 @@
         <v>59023</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>46602</v>
+        <v>47212</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>73105</v>
+        <v>72670</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.07099770010685592</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05605671241594292</v>
+        <v>0.05679080620044441</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.08793671896966734</v>
+        <v>0.08741379142130537</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>120</v>
@@ -2799,19 +2799,19 @@
         <v>110268</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>90992</v>
+        <v>92161</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>132576</v>
+        <v>131827</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.06770312477712648</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.05586762728290352</v>
+        <v>0.05658552131244955</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.08139976843441749</v>
+        <v>0.08093985773026954</v>
       </c>
     </row>
     <row r="33">
@@ -2828,19 +2828,19 @@
         <v>581753</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>552994</v>
+        <v>554188</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>605583</v>
+        <v>605747</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.7295878518016359</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.6935206792156707</v>
+        <v>0.69501874956126</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.7594730156560814</v>
+        <v>0.7596791189676821</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>789</v>
@@ -2849,19 +2849,19 @@
         <v>614548</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>590927</v>
+        <v>590385</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>638352</v>
+        <v>637921</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.7392338039245585</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.7108204702361524</v>
+        <v>0.7101678675441723</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.7678679588767008</v>
+        <v>0.7673487628901547</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1346</v>
@@ -2870,19 +2870,19 @@
         <v>1196301</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1158876</v>
+        <v>1158334</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1228856</v>
+        <v>1230680</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.7345113911917577</v>
+        <v>0.7345113911917579</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.7115329054915093</v>
+        <v>0.7112004378253706</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.7544997703817962</v>
+        <v>0.7556197327938288</v>
       </c>
     </row>
     <row r="34">
@@ -2899,19 +2899,19 @@
         <v>164373</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>139838</v>
+        <v>139862</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>187452</v>
+        <v>189097</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2061439140857025</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1753732470651777</v>
+        <v>0.1754031371759997</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2350867255278722</v>
+        <v>0.2371507623974017</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>199</v>
@@ -2920,19 +2920,19 @@
         <v>157760</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>136674</v>
+        <v>136197</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>179174</v>
+        <v>179513</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1897684959685857</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1644044288965929</v>
+        <v>0.1638301096059221</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2155262865001294</v>
+        <v>0.2159347809628051</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>357</v>
@@ -2941,19 +2941,19 @@
         <v>322134</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>292471</v>
+        <v>292336</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>357552</v>
+        <v>356064</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1977854840311157</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1795729518717112</v>
+        <v>0.1794901746358431</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2195314701895043</v>
+        <v>0.2186181748155484</v>
       </c>
     </row>
     <row r="35">
@@ -3045,19 +3045,19 @@
         <v>354638</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>313215</v>
+        <v>315012</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>398965</v>
+        <v>401204</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1005482026109967</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.08880392794623457</v>
+        <v>0.08931337671193862</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1131159616954857</v>
+        <v>0.1137507721132946</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>435</v>
@@ -3066,19 +3066,19 @@
         <v>338119</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>306963</v>
+        <v>306690</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>375027</v>
+        <v>373105</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.09057564653785515</v>
+        <v>0.09057564653785513</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.08222960984811167</v>
+        <v>0.08215642965944484</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1004626951127086</v>
+        <v>0.09994788291972734</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>734</v>
@@ -3087,19 +3087,19 @@
         <v>692756</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>642888</v>
+        <v>638436</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>747880</v>
+        <v>742288</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.09542047305656899</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.08855163437999289</v>
+        <v>0.08793841322909633</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1030132048637967</v>
+        <v>0.1022429286122808</v>
       </c>
     </row>
     <row r="37">
@@ -3116,19 +3116,19 @@
         <v>1664437</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1597300</v>
+        <v>1601990</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1729508</v>
+        <v>1727424</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4719072135572717</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4528724717267394</v>
+        <v>0.4542020184409024</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4903565327334072</v>
+        <v>0.4897655775938498</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>2369</v>
@@ -3137,19 +3137,19 @@
         <v>1697968</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1644285</v>
+        <v>1644038</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1751385</v>
+        <v>1753263</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.45485387758568</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4404732444484943</v>
+        <v>0.4404070287603933</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4691633965965742</v>
+        <v>0.4696663232447086</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>3939</v>
@@ -3158,19 +3158,19 @@
         <v>3362404</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>3270825</v>
+        <v>3283219</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>3450792</v>
+        <v>3457529</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4631386597159325</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4505244834743596</v>
+        <v>0.4522316062039956</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4753132046121021</v>
+        <v>0.4762412001519834</v>
       </c>
     </row>
     <row r="38">
@@ -3187,19 +3187,19 @@
         <v>1507968</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1444579</v>
+        <v>1443142</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>1584380</v>
+        <v>1574925</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.4275445838317316</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4095722978242023</v>
+        <v>0.4091650427836879</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4492092995874547</v>
+        <v>0.4465285128158242</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>2556</v>
@@ -3208,19 +3208,19 @@
         <v>1696910</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1641790</v>
+        <v>1640083</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1749546</v>
+        <v>1746939</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4545704758764649</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4398048471369782</v>
+        <v>0.4393477363911404</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4686707677875888</v>
+        <v>0.4679723503672644</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>4057</v>
@@ -3229,19 +3229,19 @@
         <v>3204877</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>3114616</v>
+        <v>3117779</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>3288504</v>
+        <v>3290575</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4414408672274986</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4290082295835292</v>
+        <v>0.4294439016087389</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4529595615521859</v>
+        <v>0.4532449028783847</v>
       </c>
     </row>
     <row r="39">
